--- a/Unity/Assets/Config/Excel/SkillBuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillBuffConfig.xlsx
@@ -2816,7 +2816,7 @@
     <t>束缚1秒</t>
   </si>
   <si>
-    <t>隐身3秒</t>
+    <t>切换宠物隐身状态</t>
   </si>
   <si>
     <t>忍术鬼影连</t>
@@ -3100,16 +3100,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3118,17 +3116,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
@@ -9994,7 +9994,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{43593849-7838-475C-800B-522650FF7392}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{8C5C3D38-1A9B-4DA8-97CA-484FAC940177}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -10297,11 +10297,11 @@
   <dimension ref="B1:AL727"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="Q404" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E689" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X413" sqref="X413"/>
+      <selection pane="bottomRight" activeCell="A706" sqref="$A706:$XFD706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -81028,7 +81028,7 @@
         <v>0</v>
       </c>
       <c r="J706" s="57">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="K706" s="13">
         <v>0</v>
@@ -83262,7 +83262,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="V1:V727">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="V1:V727" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/SkillBuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillBuffConfig.xlsx
@@ -773,7 +773,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="685">
   <si>
     <t>c</t>
   </si>
@@ -2851,6 +2851,9 @@
   <si>
     <t>10,77002014</t>
   </si>
+  <si>
+    <t>宠物免伤状态</t>
+  </si>
 </sst>
 </file>
 
@@ -3107,11 +3110,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3129,6 +3127,11 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
@@ -9994,7 +9997,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{8C5C3D38-1A9B-4DA8-97CA-484FAC940177}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{407F8D50-D1DD-4324-AB5E-CE39AC87272E}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -10294,14 +10297,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AL727"/>
+  <dimension ref="B1:AL728"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E689" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E722" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A706" sqref="$A706:$XFD706"/>
+      <selection pane="bottomRight" activeCell="A728" sqref="$A728:$XFD728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -83261,6 +83264,105 @@
         <v>0</v>
       </c>
     </row>
+    <row r="728" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:36">
+      <c r="C728" s="54">
+        <v>97020003</v>
+      </c>
+      <c r="D728" s="34" t="s">
+        <v>684</v>
+      </c>
+      <c r="E728" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F728" s="36">
+        <v>1</v>
+      </c>
+      <c r="G728" s="28">
+        <v>0</v>
+      </c>
+      <c r="H728" s="28">
+        <v>0</v>
+      </c>
+      <c r="I728" s="106">
+        <v>20061</v>
+      </c>
+      <c r="J728" s="46">
+        <v>9999999</v>
+      </c>
+      <c r="K728" s="36">
+        <v>0</v>
+      </c>
+      <c r="L728" s="36">
+        <v>0</v>
+      </c>
+      <c r="M728" s="36">
+        <v>3</v>
+      </c>
+      <c r="N728" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="O728" s="36">
+        <v>2</v>
+      </c>
+      <c r="P728" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q728" s="36">
+        <v>18</v>
+      </c>
+      <c r="R728" s="36">
+        <v>0</v>
+      </c>
+      <c r="S728" s="36"/>
+      <c r="T728" s="36">
+        <v>0</v>
+      </c>
+      <c r="U728" s="36">
+        <v>0</v>
+      </c>
+      <c r="V728" s="36">
+        <v>0</v>
+      </c>
+      <c r="W728" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y728" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z728" s="36">
+        <v>1</v>
+      </c>
+      <c r="AA728" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB728" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC728" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD728" s="36">
+        <v>1</v>
+      </c>
+      <c r="AE728" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF728" s="81" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG728" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH728" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI728" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ728" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="V1:V727" etc:filterBottomFollowUsedRange="0">
     <extLst/>

--- a/Unity/Assets/Config/Excel/SkillBuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillBuffConfig.xlsx
@@ -773,7 +773,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="686">
   <si>
     <t>c</t>
   </si>
@@ -2854,6 +2854,9 @@
   <si>
     <t>宠物免伤状态</t>
   </si>
+  <si>
+    <t>主角隐身状态</t>
+  </si>
 </sst>
 </file>
 
@@ -10297,14 +10300,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AL728"/>
+  <dimension ref="B1:AL729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E722" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="I722" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A728" sqref="$A728:$XFD728"/>
+      <selection pane="bottomRight" activeCell="L745" sqref="L745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -83363,6 +83366,107 @@
         <v>0</v>
       </c>
     </row>
+    <row r="729" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:37">
+      <c r="C729" s="54">
+        <v>97020004</v>
+      </c>
+      <c r="D729" s="55" t="s">
+        <v>685</v>
+      </c>
+      <c r="E729" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="F729" s="57">
+        <v>1</v>
+      </c>
+      <c r="G729" s="13">
+        <v>0</v>
+      </c>
+      <c r="H729" s="61">
+        <v>0</v>
+      </c>
+      <c r="I729" s="57">
+        <v>0</v>
+      </c>
+      <c r="J729" s="46">
+        <v>9999999</v>
+      </c>
+      <c r="K729" s="13">
+        <v>0</v>
+      </c>
+      <c r="L729" s="13">
+        <v>0</v>
+      </c>
+      <c r="M729" s="57">
+        <v>1</v>
+      </c>
+      <c r="N729" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="O729" s="57">
+        <v>2</v>
+      </c>
+      <c r="P729" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q729" s="57">
+        <v>22</v>
+      </c>
+      <c r="R729" s="13">
+        <v>0</v>
+      </c>
+      <c r="T729" s="13">
+        <v>0</v>
+      </c>
+      <c r="U729" s="13">
+        <v>1</v>
+      </c>
+      <c r="V729" s="13">
+        <v>0</v>
+      </c>
+      <c r="W729" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y729" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z729" s="57">
+        <v>0</v>
+      </c>
+      <c r="AA729" s="57">
+        <v>0</v>
+      </c>
+      <c r="AB729" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC729" s="57">
+        <v>0</v>
+      </c>
+      <c r="AD729" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE729" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF729" s="87" t="s">
+        <v>667</v>
+      </c>
+      <c r="AG729" s="72">
+        <v>0</v>
+      </c>
+      <c r="AH729" s="72">
+        <v>0</v>
+      </c>
+      <c r="AI729" s="72">
+        <v>0</v>
+      </c>
+      <c r="AJ729" s="72">
+        <v>0</v>
+      </c>
+      <c r="AK729" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="V1:V727" etc:filterBottomFollowUsedRange="0">
     <extLst/>
